--- a/ep/ep/export/flourish/Romania_party_party.xlsx
+++ b/ep/ep/export/flourish/Romania_party_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
   <si>
     <t>name1</t>
   </si>
@@ -88,17 +88,47 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fdgr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pmp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pnl.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pntcd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/prm.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/psd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/unpr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/aldero.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +143,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,16 +184,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,6 +558,9 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E2">
         <v>0.659</v>
       </c>
@@ -529,6 +575,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E3">
         <v>0.542</v>
       </c>
@@ -561,6 +610,9 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L4">
         <v>0.819</v>
       </c>
@@ -587,6 +639,9 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E5">
         <v>0.846</v>
       </c>
@@ -619,6 +674,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L6">
         <v>0.78</v>
       </c>
@@ -633,6 +691,9 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E7">
         <v>0.57</v>
       </c>
@@ -650,6 +711,9 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E8">
         <v>0.759</v>
       </c>
@@ -682,6 +746,9 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E9">
         <v>0.721</v>
       </c>
@@ -714,6 +781,9 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L10">
         <v>0.992</v>
       </c>
@@ -734,6 +804,9 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E11">
         <v>0.659</v>
       </c>
@@ -748,6 +821,9 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E12">
         <v>0.578</v>
       </c>
@@ -762,6 +838,9 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E13">
         <v>0.769</v>
       </c>
@@ -776,6 +855,9 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E14">
         <v>0.617</v>
       </c>
@@ -790,6 +872,9 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E15">
         <v>0.542</v>
       </c>
@@ -804,6 +889,9 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E16">
         <v>0.8129999999999999</v>
       </c>
@@ -818,6 +906,9 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E17">
         <v>0.542</v>
       </c>
@@ -850,6 +941,9 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E18">
         <v>0.578</v>
       </c>
@@ -864,6 +958,9 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L19">
         <v>0.84</v>
       </c>
@@ -890,6 +987,9 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E20">
         <v>0.629</v>
       </c>
@@ -931,6 +1031,9 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E21">
         <v>0.721</v>
       </c>
@@ -951,6 +1054,9 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E22">
         <v>0.67</v>
       </c>
@@ -992,6 +1098,9 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E23">
         <v>0.525</v>
       </c>
@@ -1033,6 +1142,9 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L24">
         <v>0.802</v>
       </c>
@@ -1053,6 +1165,9 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L25">
         <v>0.819</v>
       </c>
@@ -1079,6 +1194,9 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="L26">
         <v>0.84</v>
       </c>
@@ -1105,6 +1223,9 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L27">
         <v>0.928</v>
       </c>
@@ -1131,6 +1252,9 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L28">
         <v>0.966</v>
       </c>
@@ -1145,6 +1269,9 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L29">
         <v>0.908</v>
       </c>
@@ -1159,6 +1286,9 @@
       <c r="C30" t="s">
         <v>23</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L30">
         <v>0.8179999999999999</v>
       </c>
@@ -1185,6 +1315,9 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L31">
         <v>0.963</v>
       </c>
@@ -1211,6 +1344,9 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L32">
         <v>0.827</v>
       </c>
@@ -1231,6 +1367,9 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E33">
         <v>0.846</v>
       </c>
@@ -1263,6 +1402,9 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E34">
         <v>0.769</v>
       </c>
@@ -1277,6 +1419,9 @@
       <c r="C35" t="s">
         <v>18</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E35">
         <v>0.629</v>
       </c>
@@ -1318,6 +1463,9 @@
       <c r="C36" t="s">
         <v>19</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L36">
         <v>0.928</v>
       </c>
@@ -1344,6 +1492,9 @@
       <c r="C37" t="s">
         <v>21</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L37">
         <v>0.902</v>
       </c>
@@ -1358,6 +1509,9 @@
       <c r="C38" t="s">
         <v>22</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E38">
         <v>0.586</v>
       </c>
@@ -1390,6 +1544,9 @@
       <c r="C39" t="s">
         <v>23</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E39">
         <v>0.7</v>
       </c>
@@ -1440,6 +1597,9 @@
       <c r="C40" t="s">
         <v>24</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E40">
         <v>0.79</v>
       </c>
@@ -1490,6 +1650,9 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L41">
         <v>0.8120000000000001</v>
       </c>
@@ -1510,6 +1673,9 @@
       <c r="C42" t="s">
         <v>16</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L42">
         <v>0.78</v>
       </c>
@@ -1524,6 +1690,9 @@
       <c r="C43" t="s">
         <v>19</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L43">
         <v>0.966</v>
       </c>
@@ -1538,6 +1707,9 @@
       <c r="C44" t="s">
         <v>20</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L44">
         <v>0.902</v>
       </c>
@@ -1552,6 +1724,9 @@
       <c r="C45" t="s">
         <v>22</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L45">
         <v>0.883</v>
       </c>
@@ -1566,6 +1741,9 @@
       <c r="C46" t="s">
         <v>23</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L46">
         <v>0.774</v>
       </c>
@@ -1580,6 +1758,9 @@
       <c r="C47" t="s">
         <v>24</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L47">
         <v>0.944</v>
       </c>
@@ -1594,6 +1775,9 @@
       <c r="C48" t="s">
         <v>16</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E48">
         <v>0.57</v>
       </c>
@@ -1611,6 +1795,9 @@
       <c r="C49" t="s">
         <v>17</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E49">
         <v>0.617</v>
       </c>
@@ -1625,6 +1812,9 @@
       <c r="C50" t="s">
         <v>18</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E50">
         <v>0.721</v>
       </c>
@@ -1645,6 +1835,9 @@
       <c r="C51" t="s">
         <v>19</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L51">
         <v>0.908</v>
       </c>
@@ -1659,6 +1852,9 @@
       <c r="C52" t="s">
         <v>20</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E52">
         <v>0.586</v>
       </c>
@@ -1691,6 +1887,9 @@
       <c r="C53" t="s">
         <v>21</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L53">
         <v>0.883</v>
       </c>
@@ -1705,6 +1904,9 @@
       <c r="C54" t="s">
         <v>23</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E54">
         <v>0.578</v>
       </c>
@@ -1737,6 +1939,9 @@
       <c r="C55" t="s">
         <v>24</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E55">
         <v>0.594</v>
       </c>
@@ -1769,6 +1974,9 @@
       <c r="C56" t="s">
         <v>16</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E56">
         <v>0.759</v>
       </c>
@@ -1801,6 +2009,9 @@
       <c r="C57" t="s">
         <v>17</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E57">
         <v>0.542</v>
       </c>
@@ -1815,6 +2026,9 @@
       <c r="C58" t="s">
         <v>18</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E58">
         <v>0.67</v>
       </c>
@@ -1856,6 +2070,9 @@
       <c r="C59" t="s">
         <v>19</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L59">
         <v>0.8179999999999999</v>
       </c>
@@ -1882,6 +2099,9 @@
       <c r="C60" t="s">
         <v>20</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E60">
         <v>0.7</v>
       </c>
@@ -1932,6 +2152,9 @@
       <c r="C61" t="s">
         <v>21</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L61">
         <v>0.774</v>
       </c>
@@ -1946,6 +2169,9 @@
       <c r="C62" t="s">
         <v>22</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E62">
         <v>0.578</v>
       </c>
@@ -1978,6 +2204,9 @@
       <c r="C63" t="s">
         <v>24</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E63">
         <v>0.631</v>
       </c>
@@ -2028,6 +2257,9 @@
       <c r="C64" t="s">
         <v>25</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L64">
         <v>0.989</v>
       </c>
@@ -2048,6 +2280,9 @@
       <c r="C65" t="s">
         <v>16</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E65">
         <v>0.721</v>
       </c>
@@ -2080,6 +2315,9 @@
       <c r="C66" t="s">
         <v>17</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E66">
         <v>0.8129999999999999</v>
       </c>
@@ -2094,6 +2332,9 @@
       <c r="C67" t="s">
         <v>18</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E67">
         <v>0.525</v>
       </c>
@@ -2135,6 +2376,9 @@
       <c r="C68" t="s">
         <v>19</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L68">
         <v>0.963</v>
       </c>
@@ -2161,6 +2405,9 @@
       <c r="C69" t="s">
         <v>20</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E69">
         <v>0.79</v>
       </c>
@@ -2211,6 +2458,9 @@
       <c r="C70" t="s">
         <v>21</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L70">
         <v>0.944</v>
       </c>
@@ -2225,6 +2475,9 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E71">
         <v>0.594</v>
       </c>
@@ -2257,6 +2510,9 @@
       <c r="C72" t="s">
         <v>23</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E72">
         <v>0.631</v>
       </c>
@@ -2307,6 +2563,9 @@
       <c r="C73" t="s">
         <v>25</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L73">
         <v>0.824</v>
       </c>
@@ -2327,6 +2586,9 @@
       <c r="C74" t="s">
         <v>16</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L74">
         <v>0.992</v>
       </c>
@@ -2347,6 +2609,9 @@
       <c r="C75" t="s">
         <v>18</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="L75">
         <v>0.802</v>
       </c>
@@ -2367,6 +2632,9 @@
       <c r="C76" t="s">
         <v>19</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="L76">
         <v>0.827</v>
       </c>
@@ -2387,6 +2655,9 @@
       <c r="C77" t="s">
         <v>20</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L77">
         <v>0.8120000000000001</v>
       </c>
@@ -2407,6 +2678,9 @@
       <c r="C78" t="s">
         <v>23</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L78">
         <v>0.989</v>
       </c>
@@ -2427,6 +2701,9 @@
       <c r="C79" t="s">
         <v>24</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L79">
         <v>0.824</v>
       </c>
@@ -2438,6 +2715,86 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>